--- a/biology/Médecine/Charles_Bell/Charles_Bell.xlsx
+++ b/biology/Médecine/Charles_Bell/Charles_Bell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Bell (12 novembre 1774 – 28 avril 1842) est un anatomiste, chirurgien et physiologiste écossais né en novembre 1774 à Doun en Monteath, Édimbourg et mort le 28 avril 1842 à North Hallow, Worcestershire.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chirurgien dans l'armée anglaise lors de la campagne de Waterloo (1815), il devient ensuite chirurgien de l'hôpital de Middlesex et professeur à l'école libre de Windmill-Street aux universités de Londres (1828) et d'Édimbourg (1836).
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Célèbre par ses travaux sur le système nerveux, continués en France par Flourens et Magendie, il a écrit avec son frère John Bell (1763-1820) plusieurs traités d'anatomie qui ont fait avancer la science ; les principaux sont :
 Anatomie du corps humain, 1793-1802 ;
@@ -579,7 +595,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>En neurologie son nom est resté associé à :
 la paralysie faciale idiopathique (paralysie de Bell, dite encore « paralysie faciale a frigore » et au signe qui l'accompagne ;
